--- a/Simulacion/prueba 18 dias.xlsx
+++ b/Simulacion/prueba 18 dias.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,16 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Costos Transporte</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Costos Trabajadores</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>Ganancias</t>
         </is>
       </c>
@@ -494,28 +504,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F2" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H2" t="n">
-        <v>13.13432835820896</v>
+        <v>13.15151515151515</v>
       </c>
       <c r="I2" t="n">
-        <v>0.141335671537014</v>
+        <v>0.1396844517649889</v>
       </c>
       <c r="J2" t="n">
-        <v>1228275.5</v>
+        <v>1213137500</v>
       </c>
       <c r="K2" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +548,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F3" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H3" t="n">
-        <v>13.13432835820896</v>
+        <v>13.12121212121212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1415460006064035</v>
+        <v>0.1397158645480795</v>
       </c>
       <c r="J3" t="n">
-        <v>1221269</v>
+        <v>1198290000</v>
       </c>
       <c r="K3" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="4">
@@ -564,28 +592,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F4" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H4" t="n">
-        <v>12.85074626865672</v>
+        <v>12.81818181818182</v>
       </c>
       <c r="I4" t="n">
-        <v>0.138115178383635</v>
+        <v>0.1359354043917805</v>
       </c>
       <c r="J4" t="n">
-        <v>1217053.5</v>
+        <v>1198623500</v>
       </c>
       <c r="K4" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="5">
@@ -599,28 +636,37 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F5" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H5" t="n">
-        <v>12.67164179104478</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1356158134681626</v>
+        <v>0.1340164930768959</v>
       </c>
       <c r="J5" t="n">
-        <v>1187960.5</v>
+        <v>1177284000</v>
       </c>
       <c r="K5" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="6">
@@ -634,28 +680,37 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F6" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>13.17647058823529</v>
+        <v>13.26865671641791</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1440808756245001</v>
+        <v>0.1430142067725963</v>
       </c>
       <c r="J6" t="n">
-        <v>1238017.5</v>
+        <v>1221596500</v>
       </c>
       <c r="K6" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="7">
@@ -669,28 +724,37 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F7" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H7" t="n">
-        <v>13.14925373134328</v>
+        <v>13.15151515151515</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1421127964752129</v>
+        <v>0.1397937136192172</v>
       </c>
       <c r="J7" t="n">
-        <v>1228621</v>
+        <v>1208896500</v>
       </c>
       <c r="K7" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="8">
@@ -704,28 +768,37 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F8" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H8" t="n">
-        <v>13.16417910447761</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.14178364513935</v>
+        <v>0.1400982810378786</v>
       </c>
       <c r="J8" t="n">
-        <v>1232525</v>
+        <v>1214641000</v>
       </c>
       <c r="K8" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="9">
@@ -739,28 +812,37 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F9" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8312989898989899</v>
+        <v>0.8294728205128205</v>
       </c>
       <c r="H9" t="n">
-        <v>12.98484848484848</v>
+        <v>12.84615384615385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1377914901404837</v>
+        <v>0.1344999767818562</v>
       </c>
       <c r="J9" t="n">
-        <v>1201467</v>
+        <v>1183511500</v>
       </c>
       <c r="K9" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="10">
@@ -774,28 +856,37 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F10" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H10" t="n">
-        <v>13.16417910447761</v>
+        <v>13.13636363636364</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1423190282250687</v>
+        <v>0.1400723313474994</v>
       </c>
       <c r="J10" t="n">
-        <v>1230639.5</v>
+        <v>1214173500</v>
       </c>
       <c r="K10" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="11">
@@ -809,28 +900,37 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F11" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16417910447761</v>
+        <v>13.15151515151515</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1419639271988268</v>
+        <v>0.1400422843375866</v>
       </c>
       <c r="J11" t="n">
-        <v>1225140</v>
+        <v>1209933000</v>
       </c>
       <c r="K11" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="12">
@@ -862,10 +962,19 @@
         <v>0.1398101028973515</v>
       </c>
       <c r="J12" t="n">
-        <v>1196019</v>
+        <v>1196019000</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10744743272</v>
       </c>
     </row>
     <row r="13">
@@ -879,28 +988,37 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F13" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>13.01470588235294</v>
+        <v>13.04477611940299</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1414722488547993</v>
+        <v>0.1399193647515798</v>
       </c>
       <c r="J13" t="n">
-        <v>1218133</v>
+        <v>1202490000</v>
       </c>
       <c r="K13" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="14">
@@ -914,28 +1032,37 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E14" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F14" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05970149253731</v>
+        <v>13.06060606060606</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1408357985539196</v>
+        <v>0.138768017962649</v>
       </c>
       <c r="J14" t="n">
-        <v>1215475.5</v>
+        <v>1207134000</v>
       </c>
       <c r="K14" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="15">
@@ -949,28 +1076,37 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F15" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H15" t="n">
-        <v>13.19402985074627</v>
+        <v>13.13636363636364</v>
       </c>
       <c r="I15" t="n">
-        <v>0.142054068228565</v>
+        <v>0.1395765556839384</v>
       </c>
       <c r="J15" t="n">
-        <v>1229382</v>
+        <v>1212645500</v>
       </c>
       <c r="K15" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="16">
@@ -984,28 +1120,37 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F16" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H16" t="n">
-        <v>13.17910447761194</v>
+        <v>13.13636363636364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1416648228728768</v>
+        <v>0.1395369482617808</v>
       </c>
       <c r="J16" t="n">
-        <v>1233057</v>
+        <v>1218197500</v>
       </c>
       <c r="K16" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="17">
@@ -1019,28 +1164,37 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F17" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>13.25</v>
+        <v>13.29850746268657</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1453209976699912</v>
+        <v>0.143708019546946</v>
       </c>
       <c r="J17" t="n">
-        <v>1242726</v>
+        <v>1230448000</v>
       </c>
       <c r="K17" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="18">
@@ -1054,28 +1208,37 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F18" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H18" t="n">
-        <v>13.43283582089552</v>
+        <v>13.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1441641877883491</v>
+        <v>0.1428421193521867</v>
       </c>
       <c r="J18" t="n">
-        <v>1262828</v>
+        <v>1253197000</v>
       </c>
       <c r="K18" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="19">
@@ -1089,28 +1252,37 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F19" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>13.04411764705882</v>
+        <v>13.04477611940299</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1421920113195284</v>
+        <v>0.1398729284635328</v>
       </c>
       <c r="J19" t="n">
-        <v>1214122</v>
+        <v>1204557000</v>
       </c>
       <c r="K19" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="20">
@@ -1124,28 +1296,37 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F20" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>13.35294117647059</v>
+        <v>13.34328358208955</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1463753745632942</v>
+        <v>0.1441013622221678</v>
       </c>
       <c r="J20" t="n">
-        <v>1246820</v>
+        <v>1231198500</v>
       </c>
       <c r="K20" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="21">
@@ -1159,28 +1340,37 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F21" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H21" t="n">
-        <v>12.92537313432836</v>
+        <v>12.84848484848485</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1393730554804382</v>
+        <v>0.1361047602658343</v>
       </c>
       <c r="J21" t="n">
-        <v>1215466</v>
+        <v>1191131500</v>
       </c>
       <c r="K21" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="22">
@@ -1194,28 +1384,37 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F22" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H22" t="n">
-        <v>12.85074626865672</v>
+        <v>12.84848484848485</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1381179099299907</v>
+        <v>0.1361812435637942</v>
       </c>
       <c r="J22" t="n">
-        <v>1204490.5</v>
+        <v>1180864000</v>
       </c>
       <c r="K22" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="23">
@@ -1229,28 +1428,37 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F23" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>12.70588235294118</v>
+        <v>12.65671641791045</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1384743767294105</v>
+        <v>0.136211290573707</v>
       </c>
       <c r="J23" t="n">
-        <v>1202612</v>
+        <v>1175975000</v>
       </c>
       <c r="K23" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="24">
@@ -1264,28 +1472,37 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F24" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>12.92647058823529</v>
+        <v>12.8955223880597</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1410092517475071</v>
+        <v>0.1383091181748902</v>
       </c>
       <c r="J24" t="n">
-        <v>1207309</v>
+        <v>1186018000</v>
       </c>
       <c r="K24" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="25">
@@ -1299,28 +1516,37 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E25" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F25" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H25" t="n">
-        <v>13.13432835820896</v>
+        <v>13.13636363636364</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1412250439096078</v>
+        <v>0.1392214546576965</v>
       </c>
       <c r="J25" t="n">
-        <v>1232218.5</v>
+        <v>1215824500</v>
       </c>
       <c r="K25" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="26">
@@ -1334,28 +1560,37 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F26" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H26" t="n">
-        <v>12.98507462686567</v>
+        <v>13.01515151515152</v>
       </c>
       <c r="I26" t="n">
-        <v>0.13980463980464</v>
+        <v>0.1382517557014204</v>
       </c>
       <c r="J26" t="n">
-        <v>1214891</v>
+        <v>1202594500</v>
       </c>
       <c r="K26" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="27">
@@ -1369,28 +1604,37 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E27" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F27" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>13.10294117647059</v>
+        <v>13.16417910447761</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1435086166629792</v>
+        <v>0.1422848838956223</v>
       </c>
       <c r="J27" t="n">
-        <v>1233033.5</v>
+        <v>1220524000</v>
       </c>
       <c r="K27" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="28">
@@ -1404,28 +1648,37 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F28" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H28" t="n">
-        <v>12.70149253731343</v>
+        <v>12.77272727272727</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1367371132471806</v>
+        <v>0.1352265681124744</v>
       </c>
       <c r="J28" t="n">
-        <v>1173422</v>
+        <v>1175142000</v>
       </c>
       <c r="K28" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="29">
@@ -1439,28 +1692,37 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E29" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F29" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H29" t="n">
-        <v>13.05970149253731</v>
+        <v>13.01515151515152</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1410625169014433</v>
+        <v>0.1385426653883033</v>
       </c>
       <c r="J29" t="n">
-        <v>1219491.5</v>
+        <v>1204100000</v>
       </c>
       <c r="K29" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="30">
@@ -1474,28 +1736,37 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F30" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>13.17647058823529</v>
+        <v>13.2089552238806</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1441081910880571</v>
+        <v>0.1426536426536429</v>
       </c>
       <c r="J30" t="n">
-        <v>1226418</v>
+        <v>1218980000</v>
       </c>
       <c r="K30" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="31">
@@ -1509,28 +1780,37 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E31" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F31" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H31" t="n">
-        <v>13.02941176470588</v>
+        <v>12.96969696969697</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1420882125580115</v>
+        <v>0.1368600328331874</v>
       </c>
       <c r="J31" t="n">
-        <v>1221004.5</v>
+        <v>1191632500</v>
       </c>
       <c r="K31" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="32">
@@ -1544,28 +1824,37 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F32" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8312989898989899</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H32" t="n">
-        <v>12.93939393939394</v>
+        <v>12.95454545454546</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1379949903439838</v>
+        <v>0.1377013491107452</v>
       </c>
       <c r="J32" t="n">
-        <v>1211786</v>
+        <v>1200262500</v>
       </c>
       <c r="K32" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="33">
@@ -1579,28 +1868,37 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F33" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>13.02941176470588</v>
+        <v>13.05970149253731</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1426235956437301</v>
+        <v>0.140991496696195</v>
       </c>
       <c r="J33" t="n">
-        <v>1220788.5</v>
+        <v>1211429500</v>
       </c>
       <c r="K33" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="34">
@@ -1614,28 +1912,37 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F34" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H34" t="n">
-        <v>12.95522388059701</v>
+        <v>12.93939393939394</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1397049383626567</v>
+        <v>0.1374555099387316</v>
       </c>
       <c r="J34" t="n">
-        <v>1209364</v>
+        <v>1189714500</v>
       </c>
       <c r="K34" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="35">
@@ -1649,28 +1956,37 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F35" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>12.95588235294118</v>
+        <v>12.95522388059701</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1416566282338097</v>
+        <v>0.1398456129999757</v>
       </c>
       <c r="J35" t="n">
-        <v>1220398</v>
+        <v>1205460500</v>
       </c>
       <c r="K35" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="36">
@@ -1684,28 +2000,37 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F36" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>13.01470588235294</v>
+        <v>13</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1419311486425582</v>
+        <v>0.1398196633095964</v>
       </c>
       <c r="J36" t="n">
-        <v>1212241</v>
+        <v>1195609000</v>
       </c>
       <c r="K36" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="37">
@@ -1719,28 +2044,37 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F37" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H37" t="n">
-        <v>13.3134328358209</v>
+        <v>13.31818181818182</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1436506570734762</v>
+        <v>0.1413561581346818</v>
       </c>
       <c r="J37" t="n">
-        <v>1240153.5</v>
+        <v>1227150000</v>
       </c>
       <c r="K37" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="38">
@@ -1754,28 +2088,37 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F38" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>12.76470588235294</v>
+        <v>12.82089552238806</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1393826158926832</v>
+        <v>0.1378310975626414</v>
       </c>
       <c r="J38" t="n">
-        <v>1184516.5</v>
+        <v>1179187000</v>
       </c>
       <c r="K38" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="39">
@@ -1789,28 +2132,37 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F39" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8312989898989899</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H39" t="n">
-        <v>12.77272727272727</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1355270382116021</v>
+        <v>0.1347103058512456</v>
       </c>
       <c r="J39" t="n">
-        <v>1195898</v>
+        <v>1178298000</v>
       </c>
       <c r="K39" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="40">
@@ -1824,28 +2176,37 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3681.960000000001</v>
+        <v>3634.460000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>72.44000000000001</v>
+        <v>119.94</v>
       </c>
       <c r="F40" t="n">
-        <v>24.14666666666667</v>
+        <v>39.98</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8239333333333333</v>
+        <v>0.8219938461538461</v>
       </c>
       <c r="H40" t="n">
-        <v>13.27272727272727</v>
+        <v>13.27692307692308</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1412441647340979</v>
+        <v>0.139356666202304</v>
       </c>
       <c r="J40" t="n">
-        <v>1216800</v>
+        <v>1196829500</v>
       </c>
       <c r="K40" t="n">
-        <v>1074000</v>
+        <v>2499000000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10495285154</v>
       </c>
     </row>
     <row r="41">
@@ -1859,28 +2220,37 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3726.660000000002</v>
+        <v>3631.660000000002</v>
       </c>
       <c r="E41" t="n">
-        <v>27.74000000000001</v>
+        <v>122.74</v>
       </c>
       <c r="F41" t="n">
-        <v>13.87</v>
+        <v>61.37</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8365025641025641</v>
+        <v>0.8328994708994708</v>
       </c>
       <c r="H41" t="n">
-        <v>13.35384615384615</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1400491132034758</v>
+        <v>0.1344753928646548</v>
       </c>
       <c r="J41" t="n">
-        <v>1231361</v>
+        <v>1185910500</v>
       </c>
       <c r="K41" t="n">
-        <v>1140000</v>
+        <v>5415000000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10203243272</v>
       </c>
     </row>
     <row r="42">
@@ -1894,28 +2264,37 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F42" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8312989898989899</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H42" t="n">
-        <v>13.09090909090909</v>
+        <v>13.07575757575758</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1381766381766384</v>
+        <v>0.1377832955014166</v>
       </c>
       <c r="J42" t="n">
-        <v>1220730</v>
+        <v>1207522000</v>
       </c>
       <c r="K42" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="43">
@@ -1929,28 +2308,37 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E43" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F43" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H43" t="n">
-        <v>13.08955223880597</v>
+        <v>13.12121212121212</v>
       </c>
       <c r="I43" t="n">
-        <v>0.141354792361504</v>
+        <v>0.139646210116009</v>
       </c>
       <c r="J43" t="n">
-        <v>1226148</v>
+        <v>1209584000</v>
       </c>
       <c r="K43" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="44">
@@ -1964,28 +2352,37 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F44" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H44" t="n">
-        <v>13.13432835820896</v>
+        <v>13.21212121212121</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1414121548349739</v>
+        <v>0.1402990496950231</v>
       </c>
       <c r="J44" t="n">
-        <v>1221302</v>
+        <v>1218687500</v>
       </c>
       <c r="K44" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="45">
@@ -1999,28 +2396,37 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F45" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H45" t="n">
-        <v>13.04477611940299</v>
+        <v>13.03030303030303</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1402416872215532</v>
+        <v>0.1381943932279505</v>
       </c>
       <c r="J45" t="n">
-        <v>1221429</v>
+        <v>1201586000</v>
       </c>
       <c r="K45" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="46">
@@ -2034,28 +2440,37 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F46" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H46" t="n">
-        <v>13.14925373134328</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1415746818431385</v>
+        <v>0.139124484762069</v>
       </c>
       <c r="J46" t="n">
-        <v>1235078</v>
+        <v>1212357500</v>
       </c>
       <c r="K46" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="47">
@@ -2069,28 +2484,37 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F47" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>12.98529411764706</v>
+        <v>12.98507462686567</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1419120278180683</v>
+        <v>0.1396448443428311</v>
       </c>
       <c r="J47" t="n">
-        <v>1226932</v>
+        <v>1209730500</v>
       </c>
       <c r="K47" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="48">
@@ -2104,28 +2528,37 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F48" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H48" t="n">
-        <v>13.16417910447761</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1418259841078635</v>
+        <v>0.1395560690862707</v>
       </c>
       <c r="J48" t="n">
-        <v>1231709</v>
+        <v>1218804500</v>
       </c>
       <c r="K48" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="49">
@@ -2139,28 +2572,37 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F49" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.8294728205128205</v>
       </c>
       <c r="H49" t="n">
-        <v>13.2089552238806</v>
+        <v>13.2</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1428380220326531</v>
+        <v>0.1387693837358269</v>
       </c>
       <c r="J49" t="n">
-        <v>1225480</v>
+        <v>1206888000</v>
       </c>
       <c r="K49" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="50">
@@ -2174,28 +2616,37 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F50" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.8294728205128205</v>
       </c>
       <c r="H50" t="n">
-        <v>13.25373134328358</v>
+        <v>13.21538461538461</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1430606430606433</v>
+        <v>0.1384579874512762</v>
       </c>
       <c r="J50" t="n">
-        <v>1231722</v>
+        <v>1214701000</v>
       </c>
       <c r="K50" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="51">
@@ -2209,28 +2660,37 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F51" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H51" t="n">
-        <v>13.19402985074627</v>
+        <v>13.18181818181818</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1423203939982466</v>
+        <v>0.1397896162996837</v>
       </c>
       <c r="J51" t="n">
-        <v>1232247.5</v>
+        <v>1216681500</v>
       </c>
       <c r="K51" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="52">
@@ -2244,28 +2704,37 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F52" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H52" t="n">
-        <v>12.86567164179104</v>
+        <v>12.90909090909091</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1384894002343669</v>
+        <v>0.1367753548961605</v>
       </c>
       <c r="J52" t="n">
-        <v>1196356</v>
+        <v>1186423500</v>
       </c>
       <c r="K52" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="53">
@@ -2279,28 +2748,37 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E53" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F53" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H53" t="n">
-        <v>13.16417910447761</v>
+        <v>13.24242424242424</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1417986686443065</v>
+        <v>0.1404438216518756</v>
       </c>
       <c r="J53" t="n">
-        <v>1222048.5</v>
+        <v>1220474000</v>
       </c>
       <c r="K53" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="54">
@@ -2314,28 +2792,37 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F54" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>13.29411764705882</v>
+        <v>13.29850746268657</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1453073399382127</v>
+        <v>0.1432299989346972</v>
       </c>
       <c r="J54" t="n">
-        <v>1252048</v>
+        <v>1236464000</v>
       </c>
       <c r="K54" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="55">
@@ -2349,28 +2836,37 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F55" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H55" t="n">
-        <v>12.85074626865672</v>
+        <v>12.84848484848485</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1385003264197898</v>
+        <v>0.1361389045952807</v>
       </c>
       <c r="J55" t="n">
-        <v>1187447</v>
+        <v>1179689000</v>
       </c>
       <c r="K55" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="56">
@@ -2384,28 +2880,37 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F56" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H56" t="n">
-        <v>12.98507462686567</v>
+        <v>12.89393939393939</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1398401499072642</v>
+        <v>0.136789012627939</v>
       </c>
       <c r="J56" t="n">
-        <v>1206776</v>
+        <v>1178880500</v>
       </c>
       <c r="K56" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="57">
@@ -2419,28 +2924,37 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F57" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>12.94117647058824</v>
+        <v>12.95522388059701</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1409819362839499</v>
+        <v>0.1390739511544883</v>
       </c>
       <c r="J57" t="n">
-        <v>1203762</v>
+        <v>1194982000</v>
       </c>
       <c r="K57" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="58">
@@ -2454,28 +2968,37 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F58" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H58" t="n">
-        <v>12.80597014925373</v>
+        <v>12.8030303030303</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1379717721999603</v>
+        <v>0.1357414646005252</v>
       </c>
       <c r="J58" t="n">
-        <v>1196258.5</v>
+        <v>1182459500</v>
       </c>
       <c r="K58" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="59">
@@ -2489,28 +3012,37 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F59" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H59" t="n">
-        <v>13.26865671641791</v>
+        <v>13.28787878787879</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1430797638851332</v>
+        <v>0.1411376344262252</v>
       </c>
       <c r="J59" t="n">
-        <v>1239542.5</v>
+        <v>1226623000</v>
       </c>
       <c r="K59" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="60">
@@ -2524,28 +3056,37 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F60" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H60" t="n">
-        <v>13.25373134328358</v>
+        <v>13.22727272727273</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1430852269778446</v>
+        <v>0.1406486876285536</v>
       </c>
       <c r="J60" t="n">
-        <v>1237397</v>
+        <v>1223911000</v>
       </c>
       <c r="K60" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="61">
@@ -2559,28 +3100,37 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F61" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>13</v>
+        <v>13.01492537313433</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1425826224483944</v>
+        <v>0.1402608080460432</v>
       </c>
       <c r="J61" t="n">
-        <v>1219169.5</v>
+        <v>1201165000</v>
       </c>
       <c r="K61" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="62">
@@ -2594,28 +3144,37 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F62" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H62" t="n">
-        <v>13.1044776119403</v>
+        <v>13.15151515151515</v>
       </c>
       <c r="I62" t="n">
-        <v>0.141410789061796</v>
+        <v>0.1396994752699453</v>
       </c>
       <c r="J62" t="n">
-        <v>1228200</v>
+        <v>1221361500</v>
       </c>
       <c r="K62" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="63">
@@ -2629,28 +3188,37 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F63" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>12.70588235294118</v>
+        <v>12.70149253731343</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1385412996151254</v>
+        <v>0.1367698918034491</v>
       </c>
       <c r="J63" t="n">
-        <v>1187321</v>
+        <v>1164698500</v>
       </c>
       <c r="K63" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="64">
@@ -2664,28 +3232,37 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F64" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>13.19117647058824</v>
+        <v>13.2089552238806</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1439101539772684</v>
+        <v>0.1423477094618038</v>
       </c>
       <c r="J64" t="n">
-        <v>1222413</v>
+        <v>1209100500</v>
       </c>
       <c r="K64" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="65">
@@ -2699,28 +3276,37 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F65" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H65" t="n">
-        <v>13.1044776119403</v>
+        <v>13.21212121212121</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1411103189626682</v>
+        <v>0.140178861655372</v>
       </c>
       <c r="J65" t="n">
-        <v>1214441</v>
+        <v>1210105000</v>
       </c>
       <c r="K65" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="66">
@@ -2734,28 +3320,37 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F66" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>13.10294117647059</v>
+        <v>13.16417910447761</v>
       </c>
       <c r="I66" t="n">
-        <v>0.142736954817492</v>
+        <v>0.1412865037026114</v>
       </c>
       <c r="J66" t="n">
-        <v>1210067.5</v>
+        <v>1200245500</v>
       </c>
       <c r="K66" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="67">
@@ -2769,28 +3364,37 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F67" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H67" t="n">
-        <v>12.97014925373134</v>
+        <v>12.95454545454546</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1398674653708213</v>
+        <v>0.137489654268178</v>
       </c>
       <c r="J67" t="n">
-        <v>1222531</v>
+        <v>1208222500</v>
       </c>
       <c r="K67" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="68">
@@ -2804,28 +3408,37 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F68" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>13.27941176470588</v>
+        <v>13.25373134328358</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1448320508723197</v>
+        <v>0.1425976459533509</v>
       </c>
       <c r="J68" t="n">
-        <v>1241266.5</v>
+        <v>1223087000</v>
       </c>
       <c r="K68" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="69">
@@ -2839,28 +3452,37 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F69" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H69" t="n">
-        <v>13.04477611940299</v>
+        <v>13.06060606060606</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1401624723772377</v>
+        <v>0.1382695107527325</v>
       </c>
       <c r="J69" t="n">
-        <v>1222844.5</v>
+        <v>1208485000</v>
       </c>
       <c r="K69" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="70">
@@ -2874,28 +3496,37 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F70" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H70" t="n">
         <v>13</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1399302909370026</v>
+        <v>0.1377518827183259</v>
       </c>
       <c r="J70" t="n">
-        <v>1216021.5</v>
+        <v>1198999500</v>
       </c>
       <c r="K70" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="71">
@@ -2909,28 +3540,37 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F71" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H71" t="n">
-        <v>13.17910447761194</v>
+        <v>13.1969696969697</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1421974744122397</v>
+        <v>0.1402403214483753</v>
       </c>
       <c r="J71" t="n">
-        <v>1221574.5</v>
+        <v>1208371000</v>
       </c>
       <c r="K71" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="72">
@@ -2944,28 +3584,37 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F72" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H72" t="n">
-        <v>12.98507462686567</v>
+        <v>13</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1395191932104687</v>
+        <v>0.1379540171486483</v>
       </c>
       <c r="J72" t="n">
-        <v>1215799</v>
+        <v>1203191000</v>
       </c>
       <c r="K72" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="73">
@@ -2979,28 +3628,37 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F73" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H73" t="n">
-        <v>13.13432835820896</v>
+        <v>13.1969696969697</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1415828764822056</v>
+        <v>0.1405121103107683</v>
       </c>
       <c r="J73" t="n">
-        <v>1227798</v>
+        <v>1213939000</v>
       </c>
       <c r="K73" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="74">
@@ -3014,28 +3672,37 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F74" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H74" t="n">
-        <v>12.85074626865672</v>
+        <v>12.87878787878788</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1387516286845148</v>
+        <v>0.1366783850005328</v>
       </c>
       <c r="J74" t="n">
-        <v>1204422.5</v>
+        <v>1189968500</v>
       </c>
       <c r="K74" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="75">
@@ -3049,28 +3716,37 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F75" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H75" t="n">
-        <v>13.1044776119403</v>
+        <v>13</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1407033185556678</v>
+        <v>0.1374309260215303</v>
       </c>
       <c r="J75" t="n">
-        <v>1223550</v>
+        <v>1198257500</v>
       </c>
       <c r="K75" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="76">
@@ -3084,28 +3760,37 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>3726.660000000001</v>
+        <v>3631.660000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>27.74000000000001</v>
+        <v>122.74</v>
       </c>
       <c r="F76" t="n">
-        <v>13.87</v>
+        <v>61.37</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8365025641025641</v>
+        <v>0.8328994708994708</v>
       </c>
       <c r="H76" t="n">
-        <v>12.92307692307692</v>
+        <v>13</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1355721087264714</v>
+        <v>0.1326698407235322</v>
       </c>
       <c r="J76" t="n">
-        <v>1200586</v>
+        <v>1178494000</v>
       </c>
       <c r="K76" t="n">
-        <v>1140000</v>
+        <v>5415000000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>10203243272</v>
       </c>
     </row>
     <row r="77">
@@ -3119,28 +3804,37 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F77" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H77" t="n">
-        <v>13.19402985074627</v>
+        <v>13.25757575757576</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1429172368769686</v>
+        <v>0.1410106175206849</v>
       </c>
       <c r="J77" t="n">
-        <v>1234738</v>
+        <v>1223814500</v>
       </c>
       <c r="K77" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="78">
@@ -3154,28 +3848,37 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F78" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H78" t="n">
-        <v>12.77611940298507</v>
+        <v>12.75757575757576</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1377136410693459</v>
+        <v>0.1357674142909045</v>
       </c>
       <c r="J78" t="n">
-        <v>1196511.5</v>
+        <v>1179519000</v>
       </c>
       <c r="K78" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="79">
@@ -3189,28 +3892,37 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F79" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H79" t="n">
-        <v>12.71641791044776</v>
+        <v>12.75757575757576</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1361867066565055</v>
+        <v>0.1349165376011016</v>
       </c>
       <c r="J79" t="n">
-        <v>1187563</v>
+        <v>1176948000</v>
       </c>
       <c r="K79" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="80">
@@ -3224,28 +3936,37 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F80" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G80" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>12.83823529411765</v>
+        <v>12.8955223880597</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1398579049585764</v>
+        <v>0.1382695107527325</v>
       </c>
       <c r="J80" t="n">
-        <v>1199027.5</v>
+        <v>1184539000</v>
       </c>
       <c r="K80" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L80" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="81">
@@ -3259,28 +3980,37 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F81" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H81" t="n">
-        <v>13.01492537313433</v>
+        <v>13</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1407210736069798</v>
+        <v>0.1381807354961719</v>
       </c>
       <c r="J81" t="n">
-        <v>1218746</v>
+        <v>1199657500</v>
       </c>
       <c r="K81" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L81" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="82">
@@ -3294,28 +4024,37 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F82" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H82" t="n">
-        <v>13.19402985074627</v>
+        <v>13.18181818181818</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1424187296670521</v>
+        <v>0.1399821903177611</v>
       </c>
       <c r="J82" t="n">
-        <v>1238447.5</v>
+        <v>1215640000</v>
       </c>
       <c r="K82" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L82" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="83">
@@ -3329,28 +4068,37 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F83" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>13.14705882352941</v>
+        <v>13.08955223880597</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1438350364524863</v>
+        <v>0.1413725474128162</v>
       </c>
       <c r="J83" t="n">
-        <v>1243482.5</v>
+        <v>1217480500</v>
       </c>
       <c r="K83" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L83" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="84">
@@ -3364,28 +4112,37 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F84" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H84" t="n">
-        <v>12.76119402985075</v>
+        <v>12.71212121212121</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1371099693247346</v>
+        <v>0.1345259264722355</v>
       </c>
       <c r="J84" t="n">
-        <v>1200707.5</v>
+        <v>1175989500</v>
       </c>
       <c r="K84" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L84" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="85">
@@ -3399,28 +4156,37 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F85" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G85" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>13.26470588235294</v>
+        <v>13.25373134328358</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1451748599399609</v>
+        <v>0.1427601729615155</v>
       </c>
       <c r="J85" t="n">
-        <v>1238227</v>
+        <v>1220125500</v>
       </c>
       <c r="K85" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L85" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="86">
@@ -3434,28 +4200,37 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F86" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H86" t="n">
-        <v>13.19402985074627</v>
+        <v>13.1969696969697</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1419652929720047</v>
+        <v>0.1400655024816101</v>
       </c>
       <c r="J86" t="n">
-        <v>1223524</v>
+        <v>1210436500</v>
       </c>
       <c r="K86" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L86" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="87">
@@ -3469,28 +4244,37 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F87" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>13.04411764705882</v>
+        <v>12.98507462686567</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1424501424501426</v>
+        <v>0.1397732270215494</v>
       </c>
       <c r="J87" t="n">
-        <v>1222593</v>
+        <v>1195974000</v>
       </c>
       <c r="K87" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L87" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="88">
@@ -3504,28 +4288,37 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F88" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>12.86764705882353</v>
+        <v>12.8955223880597</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1405134760839461</v>
+        <v>0.1387434340454478</v>
       </c>
       <c r="J88" t="n">
-        <v>1207645.5</v>
+        <v>1196163500</v>
       </c>
       <c r="K88" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L88" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="89">
@@ -3539,28 +4332,37 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F89" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H89" t="n">
-        <v>13.3134328358209</v>
+        <v>13.24242424242424</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1439538587189595</v>
+        <v>0.1410379329842419</v>
       </c>
       <c r="J89" t="n">
-        <v>1241616</v>
+        <v>1218541500</v>
       </c>
       <c r="K89" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L89" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="90">
@@ -3574,28 +4376,37 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E90" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F90" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H90" t="n">
-        <v>12.74626865671642</v>
+        <v>12.74242424242424</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1374582414850874</v>
+        <v>0.1353809004815718</v>
       </c>
       <c r="J90" t="n">
-        <v>1198568.5</v>
+        <v>1183117000</v>
       </c>
       <c r="K90" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L90" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="91">
@@ -3609,28 +4420,37 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E91" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F91" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>13.13235294117647</v>
+        <v>13.13432835820896</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1437763082058386</v>
+        <v>0.1417139907072795</v>
       </c>
       <c r="J91" t="n">
-        <v>1223096.5</v>
+        <v>1205724000</v>
       </c>
       <c r="K91" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L91" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="92">
@@ -3644,28 +4464,37 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F92" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H92" t="n">
-        <v>13.02985074626866</v>
+        <v>13.10606060606061</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1402594422728653</v>
+        <v>0.1387912361066725</v>
       </c>
       <c r="J92" t="n">
-        <v>1200798</v>
+        <v>1199598500</v>
       </c>
       <c r="K92" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L92" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="93">
@@ -3679,28 +4508,37 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F93" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H93" t="n">
-        <v>13.11940298507463</v>
+        <v>13.18181818181818</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1413684500932826</v>
+        <v>0.1401843247480835</v>
       </c>
       <c r="J93" t="n">
-        <v>1224724</v>
+        <v>1218257000</v>
       </c>
       <c r="K93" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L93" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="94">
@@ -3714,28 +4552,37 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F94" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>13.07352941176471</v>
+        <v>13.19402985074627</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1423681960594714</v>
+        <v>0.1414531280303095</v>
       </c>
       <c r="J94" t="n">
-        <v>1217421.5</v>
+        <v>1216889500</v>
       </c>
       <c r="K94" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="95">
@@ -3749,28 +4596,37 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>3736.920000000002</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F95" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>13.45588235294118</v>
+        <v>13.49253731343284</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1472767848606777</v>
+        <v>0.1451762257131387</v>
       </c>
       <c r="J95" t="n">
-        <v>1253788</v>
+        <v>1246075000</v>
       </c>
       <c r="K95" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L95" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="96">
@@ -3784,28 +4640,37 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000002</v>
       </c>
       <c r="E96" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F96" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G96" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H96" t="n">
-        <v>13.34328358208955</v>
+        <v>13.36363636363636</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1440166842851409</v>
+        <v>0.1420868467848337</v>
       </c>
       <c r="J96" t="n">
-        <v>1244778</v>
+        <v>1234297000</v>
       </c>
       <c r="K96" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L96" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="97">
@@ -3819,28 +4684,37 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F97" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>13.13235294117647</v>
+        <v>13.14925373134328</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1432190727492743</v>
+        <v>0.1415951684408063</v>
       </c>
       <c r="J97" t="n">
-        <v>1222434</v>
+        <v>1205034500</v>
       </c>
       <c r="K97" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L97" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="98">
@@ -3854,28 +4728,37 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F98" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>13.19117647058824</v>
+        <v>13.22388059701493</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1438336706793085</v>
+        <v>0.1419625614256489</v>
       </c>
       <c r="J98" t="n">
-        <v>1227900</v>
+        <v>1219230000</v>
       </c>
       <c r="K98" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L98" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="99">
@@ -3889,28 +4772,37 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F99" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8266411764705882</v>
+        <v>0.8247999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>13.17647058823529</v>
+        <v>13.17910447761194</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1440098554192516</v>
+        <v>0.1421073333825015</v>
       </c>
       <c r="J99" t="n">
-        <v>1221925</v>
+        <v>1212579500</v>
       </c>
       <c r="K99" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="100">
@@ -3924,28 +4816,37 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F100" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H100" t="n">
-        <v>13.1044776119403</v>
+        <v>13.12121212121212</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1415541952454707</v>
+        <v>0.1396243577451633</v>
       </c>
       <c r="J100" t="n">
-        <v>1225895</v>
+        <v>1207790500</v>
       </c>
       <c r="K100" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>10549803272</v>
       </c>
     </row>
     <row r="101">
@@ -3959,28 +4860,37 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>3736.920000000001</v>
+        <v>3689.420000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="F101" t="n">
-        <v>17.48</v>
+        <v>64.98</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8289353233830845</v>
+        <v>0.82710101010101</v>
       </c>
       <c r="H101" t="n">
-        <v>13.23880597014925</v>
+        <v>13.36363636363636</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1430169383189519</v>
+        <v>0.1422698603906659</v>
       </c>
       <c r="J101" t="n">
-        <v>1228432.5</v>
+        <v>1226269000</v>
       </c>
       <c r="K101" t="n">
-        <v>524400.0000000001</v>
+        <v>1949400000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>272.3522000000001</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>10549803272</v>
       </c>
     </row>
   </sheetData>
